--- a/indicadores/tablas/pob/130306_ascendencia.xlsx
+++ b/indicadores/tablas/pob/130306_ascendencia.xlsx
@@ -426,7 +426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/130306_ascendencia.xlsx
+++ b/indicadores/tablas/pob/130306_ascendencia.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -24,85 +24,94 @@
     <t xml:space="preserve">No afrodescendiente</t>
   </si>
   <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
     <t xml:space="preserve">2011</t>
   </si>
   <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de personas de 20 años o más que no culminaron educación media superior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Educación</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">No culminación de educación media superior (mayores de 20 años)</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de personas de 20 años o más que no culminaron educación media superior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el porcentaje de personas de 20 años o más que no culminaron educación media superior.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular:(Cantidad de personas de 20 años o más que no culminaron la educación media superior / Cantidad de población de 20 años o más)*100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
   </si>
   <si>
     <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -421,12 +430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -444,10 +453,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>83</v>
+        <v>74.6</v>
       </c>
       <c r="C2" t="n">
-        <v>67.5</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +464,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>81.5</v>
+        <v>76.4</v>
       </c>
       <c r="C3" t="n">
-        <v>66.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>77.6</v>
       </c>
       <c r="C4" t="n">
-        <v>66.7</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="5">
@@ -477,10 +486,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>80.4</v>
+        <v>79.6</v>
       </c>
       <c r="C5" t="n">
-        <v>65.4</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +508,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>79.6</v>
+        <v>80.4</v>
       </c>
       <c r="C7" t="n">
-        <v>65.3</v>
+        <v>65.4</v>
       </c>
     </row>
     <row r="8">
@@ -510,10 +519,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>77.6</v>
+        <v>81</v>
       </c>
       <c r="C8" t="n">
-        <v>64.2</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="9">
@@ -521,10 +530,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>76.4</v>
+        <v>81.5</v>
       </c>
       <c r="C9" t="n">
-        <v>64</v>
+        <v>66.6</v>
       </c>
     </row>
     <row r="10">
@@ -532,10 +541,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>74.6</v>
+        <v>83</v>
       </c>
       <c r="C10" t="n">
-        <v>62.9</v>
+        <v>67.5</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -614,6 +623,22 @@
       </c>
       <c r="B8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/130306_ascendencia.xlsx
+++ b/indicadores/tablas/pob/130306_ascendencia.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -24,6 +24,15 @@
     <t xml:space="preserve">No afrodescendiente</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2019</t>
   </si>
   <si>
@@ -51,9 +60,6 @@
     <t xml:space="preserve">2011</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -96,13 +102,20 @@
     <t xml:space="preserve">observaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Sin observaciones</t>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH. Durante el año 2020 y hasta julio del año 2021 se suspende el relevamiento de la información necesaria para construir indicadores relativos al nivel y la trayectoria educativa. A partir de esta fecha, las preguntas se relevan en el formulario presencial. Un conjunto importante de indicadores educativos tienen un efecto estacional, por lo que no se recomienda comparar los resultados del segundo semestre del 2021 con la información anual. Las estimaciones desde 2022 se calculan a partir de la muestra de implantación. A su vez, se modifica la forma de relevamiento en la culminación de ciclos educativos. En particular, cambia el relevamiento de cantidad de años aprobados en UTU. Hasta el año 2019 se relevaban los años aprobados en bachillerato tecnológico y en educación técnica. En el segundo caso era posible distinguir el curso según la exigencia previa para cursarlo. A partir de julio de 2021 se distinguen los años de Educación Media Básica y Educación Media Superior, tanto de liceo como de CEPT-UTU. Además, se consulta de forma independiente los años realizados en cursos técnicos en CEPT-UTU. No se releva el nivel de exigencia previa para asistir a estos cursos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -453,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>74.6</v>
+        <v>74</v>
       </c>
       <c r="C2" t="n">
-        <v>62.9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -464,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>76.4</v>
+        <v>76.3</v>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="4">
@@ -475,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>77.6</v>
+        <v>75.5</v>
       </c>
       <c r="C4" t="n">
-        <v>64.2</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="5">
@@ -486,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>79.6</v>
+        <v>74.6</v>
       </c>
       <c r="C5" t="n">
-        <v>65.3</v>
+        <v>62.9</v>
       </c>
     </row>
     <row r="6">
@@ -497,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>80.4</v>
+        <v>76.4</v>
       </c>
       <c r="C6" t="n">
-        <v>65.5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -508,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>80.4</v>
+        <v>77.6</v>
       </c>
       <c r="C7" t="n">
-        <v>65.4</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="8">
@@ -519,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>81</v>
+        <v>79.6</v>
       </c>
       <c r="C8" t="n">
-        <v>66.7</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="9">
@@ -530,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>81.5</v>
+        <v>80.4</v>
       </c>
       <c r="C9" t="n">
-        <v>66.6</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="10">
@@ -541,9 +554,42 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
+        <v>80.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>65.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>81</v>
+      </c>
+      <c r="C11" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>66.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
         <v>83</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>67.5</v>
       </c>
     </row>
@@ -563,82 +609,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
